--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuildingReason.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuildingReason.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D406A23-4BA4-4462-9837-A2DD2232E4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF5ACB-322A-4867-8AB5-77027BA3E0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>修改原因序號</t>
   </si>
   <si>
-    <t>1:補齊舊資料;2:資料錯誤;3:部分塗銷（持分）;4:部分塗銷（車位）;5:政府機關通知;6:其他：</t>
-  </si>
-  <si>
     <t>ClCode1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,6 +273,15 @@
   </si>
   <si>
     <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:補齊舊資料
+2:資料錯誤
+3:部分塗銷（持分）
+4:部分塗銷（車位）
+5:政府機關通知
+6:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +857,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -871,10 +877,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -884,7 +890,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>17</v>
@@ -899,7 +905,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -912,10 +918,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -927,10 +933,10 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>13</v>
@@ -1005,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>14</v>
@@ -1024,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>11</v>
@@ -1043,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>30</v>
@@ -1057,15 +1063,15 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -1075,7 +1081,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
@@ -1105,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>5</v>
@@ -1119,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1413,18 +1419,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
